--- a/AHB-to-APB-sync-down-Bridge-Verification/testcase_plan.xlsx
+++ b/AHB-to-APB-sync-down-Bridge-Verification/testcase_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPGA\code\IC-Verification-Portfolio\AHB-to-APB-Bridge-Verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPGA\code\IC-Verification-Portfolio\AHB-to-APB-sync-down-Bridge-Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE912F2C-2886-488D-9764-CF4535260256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EACCE-F67E-4DF9-B668-8E2EBC8683F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caselist" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>AHB端</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -84,13 +84,6 @@
   </si>
   <si>
     <t>word</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>驗證HWRITE=0時，
-不同的傳輸模式(HBURST)和字長(HSIZE)，
-APB端輸出訊號是否正常，符合APB協議，
-且AHB端輸出正確傳遞APB端訊號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -120,16 +113,6 @@
   </si>
   <si>
     <t>4-beat burst(inc)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HADDR={Random}
-HSIZE={byte, halfword, word}
-APB端回應：PRDATA={Random}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -142,22 +125,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>halfword</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>write</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>single</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>驗證HWRITE=1時，
-不同的傳輸模式(HBURST)和字長(HSIZE)，
-APB端輸出訊號是否正常，且符合APB協議，
-且AHB端輸出正確傳遞APB端訊號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -183,16 +155,6 @@
   <si>
     <t xml:space="preserve"> PADDR, 
 PWDATA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byte</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HADDR={Random}
-HSIZE={byte, halfword, word}
-HWDATA={Random}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -209,20 +171,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>對bridge施加
-讀取壓力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢速寫入，快速讀取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AHB Master 對一個APB Slave發起數次非連續的單筆寫入 。每次寫入之間會刻意插入多個閒置週期 (Idle cycles)
-緊接著，AHB Master 對剛才寫入的位址發起連續的單筆讀取，目的是對橋接器施加最大的讀取壓力，強制其產生等待狀態。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 每筆傳輸的 HADDR 與 HRDATA 都被正確對應到 PADDR 與 PRDATA
 2. Bridge能正確將讀寫操作轉換成符合APB協議的讀寫操作
 3. Bridge是否正確等待PREADY回應
@@ -240,38 +188,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>對bridge施加
-寫入壓力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">連續多筆Single Write </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>由AHB Master連續發起多筆不連續位址的單筆寫入傳輸。驗證Bridge是否能正確地將每一筆AHB寫入請求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei Light"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>逐一轉換成符合APB協議的寫入操作。</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -292,10 +209,6 @@
   </si>
   <si>
     <t>Back to back transfers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>由AHB Master發起連續的、無任何等待週期 (Zero Wait-state) 的Read-after-write 寫入傳輸。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -409,12 +322,55 @@
 HWDATA={Random}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>連續多筆Single reaed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HADDR={Random}
+HSIZE={word}
+APB端回應：PRDATA={Random}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HADDR={Random}
+HSIZE={word}
+HWDATA={Random}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證HWRITE=0時，
+不同的傳輸模式(HBURST)，
+APB端輸出訊號是否正常，符合APB協議，
+且AHB端輸出正確傳遞APB端訊號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證HWRITE=1時，
+不同的傳輸模式(HBURST)，
+APB端輸出訊號是否正常，且符合APB協議，
+且AHB端輸出正確傳遞APB端訊號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHB Master 對一個APB Slave發起數次非連續的單筆寫入 。
+緊接著，AHB Master 對剛才寫入的位址發起連續的單筆讀取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由AHB Master連續發起多筆不連續位址的單筆寫入傳輸。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>由AHB Master發起連續的Read-after-write 寫入傳輸。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,13 +416,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Microsoft JhengHei Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6" tint="-0.249977111117893"/>
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
@@ -553,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -606,24 +555,54 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,35 +612,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5607B5-1642-4126-B55A-E6CA3108193B}">
   <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,14 +929,14 @@
     </row>
     <row r="2" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1019,7 +977,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1028,325 +986,317 @@
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="27" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="2:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="2:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="9"/>
@@ -1622,7 +1572,18 @@
       <c r="K39" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D5:D7"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="B12:B14"/>
@@ -1636,16 +1597,7 @@
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D9:D11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
